--- a/RESULTADOS_PAPER/SGAI/mejoras/completoI.xlsx
+++ b/RESULTADOS_PAPER/SGAI/mejoras/completoI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chris\UPV\PHD\LOGIFRUIT\RESULTADOS\paper\mejoras\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chris\UPV\PHD\LOGIFRUIT\RESULTADOS_PAPER\SGAI\mejoras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09394114-34E3-46AD-8E82-F6BADDD284D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9152CF8-0FF8-4E48-B538-E082F082D0C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,9 +68,6 @@
     <t>Stock cost</t>
   </si>
   <si>
-    <t>unimproved</t>
-  </si>
-  <si>
     <t>LCR</t>
   </si>
   <si>
@@ -84,6 +81,9 @@
   </si>
   <si>
     <t>GREEDY</t>
+  </si>
+  <si>
+    <t>Baseline</t>
   </si>
 </sst>
 </file>
@@ -667,7 +667,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -740,7 +742,7 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>unimproved</c:v>
+                  <c:v>Baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>LCR</c:v>
@@ -799,8 +801,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -872,7 +875,7 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>unimproved</c:v>
+                  <c:v>Baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>LCR</c:v>
@@ -1226,7 +1229,7 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>unimproved</c:v>
+                  <c:v>Baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>LCR</c:v>
@@ -1355,7 +1358,7 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>unimproved</c:v>
+                  <c:v>Baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>LCR</c:v>
@@ -1629,11 +1632,20 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:pattFill prst="dkDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -1700,7 +1712,7 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>unimproved</c:v>
+                  <c:v>Baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>LCR</c:v>
@@ -1756,9 +1768,14 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:pattFill prst="dkVert">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1932,7 +1949,7 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>unimproved</c:v>
+                  <c:v>Baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>LCR</c:v>
@@ -1988,11 +2005,16 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:pattFill prst="dkUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2061,7 +2083,7 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>unimproved</c:v>
+                  <c:v>Baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>LCR</c:v>
@@ -2091,7 +2113,7 @@
                   <c:v>933.05</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>215.55841386554621</c:v>
+                  <c:v>916.65000000000009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4326,7 +4348,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4481,33 +4503,33 @@
         <v>8</v>
       </c>
       <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
         <v>15</v>
       </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
       <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
         <v>15</v>
       </c>
-      <c r="H11" t="s">
-        <v>16</v>
-      </c>
       <c r="I11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" t="s">
         <v>15</v>
       </c>
-      <c r="J11" t="s">
-        <v>16</v>
-      </c>
       <c r="K11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" t="s">
         <v>15</v>
-      </c>
-      <c r="L11" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2">
         <v>674.13</v>
@@ -4547,7 +4569,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2">
         <v>775.14</v>
@@ -4587,7 +4609,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2">
         <v>701.55</v>
@@ -4626,7 +4648,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2">
         <v>701.46</v>
@@ -4635,8 +4657,8 @@
         <v>215.19</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" ref="D15" si="6">ABS(B15/1904)+C15</f>
-        <v>215.55841386554621</v>
+        <f>B15+C15</f>
+        <v>916.65000000000009</v>
       </c>
       <c r="E15">
         <v>11684</v>

--- a/RESULTADOS_PAPER/SGAI/mejoras/completoI.xlsx
+++ b/RESULTADOS_PAPER/SGAI/mejoras/completoI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chris\UPV\PHD\LOGIFRUIT\RESULTADOS_PAPER\SGAI\mejoras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9152CF8-0FF8-4E48-B538-E082F082D0C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BDA499-23AD-4120-A47C-9840F2E14F37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>Stock minimo</t>
   </si>
@@ -71,9 +71,6 @@
     <t>LCR</t>
   </si>
   <si>
-    <t>Alfa</t>
-  </si>
-  <si>
     <t>Scheduler</t>
   </si>
   <si>
@@ -83,7 +80,10 @@
     <t>GREEDY</t>
   </si>
   <si>
-    <t>Baseline</t>
+    <t>Shuffle</t>
+  </si>
+  <si>
+    <t>GRASP baseline</t>
   </si>
 </sst>
 </file>
@@ -567,11 +567,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -646,7 +648,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.9661413248505406E-2"/>
+          <c:y val="7.2754811898512683E-2"/>
+          <c:w val="0.87716322820619486"/>
+          <c:h val="0.70405511811023624"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -742,13 +754,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Baseline</c:v>
+                  <c:v>GRASP baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>LCR</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Alfa</c:v>
+                  <c:v>Shuffle</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Scheduler</c:v>
@@ -875,13 +887,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Baseline</c:v>
+                  <c:v>GRASP baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>LCR</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Alfa</c:v>
+                  <c:v>Shuffle</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Scheduler</c:v>
@@ -1156,9 +1168,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:pattFill prst="dkDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1229,13 +1249,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Baseline</c:v>
+                  <c:v>GRASP baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>LCR</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Alfa</c:v>
+                  <c:v>Shuffle</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Scheduler</c:v>
@@ -1285,9 +1305,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:pattFill prst="wdDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1358,13 +1386,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Baseline</c:v>
+                  <c:v>GRASP baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>LCR</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Alfa</c:v>
+                  <c:v>Shuffle</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Scheduler</c:v>
@@ -1632,14 +1660,11 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="dkDnDiag">
-              <a:fgClr>
-                <a:schemeClr val="accent1"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
             <a:ln>
               <a:solidFill>
                 <a:schemeClr val="bg1">
@@ -1650,75 +1675,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Hoja1!$A$12:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Baseline</c:v>
+                  <c:v>GRASP baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>LCR</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Alfa</c:v>
+                  <c:v>Shuffle</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Scheduler</c:v>
@@ -1730,19 +1699,19 @@
             <c:numRef>
               <c:f>Hoja1!$B$12:$B$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>674.13</c:v>
+                  <c:v>7.0535152151101785</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>775.14</c:v>
+                  <c:v>4.2927597061909761</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>701.55</c:v>
+                  <c:v>3.9795383001049318</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>701.46</c:v>
+                  <c:v>3.9202518363064009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1768,194 +1737,28 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="dkVert">
-              <a:fgClr>
-                <a:schemeClr val="accent1"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0"/>
-                  <c:y val="-2.72572353293833E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-ECC9-464C-96ED-5E2A2599F027}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.7383746197304883E-3"/>
-                  <c:y val="-3.1800107884280518E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-ECC9-464C-96ED-5E2A2599F027}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-3.4767492394611041E-3"/>
-                  <c:y val="-2.2714362774486085E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-ECC9-464C-96ED-5E2A2599F027}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.738374619730552E-3"/>
-                  <c:y val="-5.9057343213663814E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{C7A05613-34C0-4EF7-808A-E9B481BDF8FD}" type="VALUE">
-                      <a:rPr lang="en-US" u="none"/>
-                      <a:pPr/>
-                      <a:t>[VALOR]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="es-ES"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-ECC9-464C-96ED-5E2A2599F027}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Hoja1!$A$12:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Baseline</c:v>
+                  <c:v>GRASP baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>LCR</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Alfa</c:v>
+                  <c:v>Shuffle</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Scheduler</c:v>
@@ -2005,91 +1808,31 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="dkUpDiag">
-              <a:fgClr>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Hoja1!$A$12:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Baseline</c:v>
+                  <c:v>GRASP baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>LCR</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Alfa</c:v>
+                  <c:v>Shuffle</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Scheduler</c:v>
@@ -2104,16 +1847,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>912.68000000000006</c:v>
+                  <c:v>245.60351521511018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1009.69</c:v>
+                  <c:v>238.84275970619098</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>933.05</c:v>
+                  <c:v>235.47953830010493</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>916.65000000000009</c:v>
+                  <c:v>219.11025183630639</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2125,9 +1868,8 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -2167,7 +1909,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2192,6 +1934,7 @@
       <c:valAx>
         <c:axId val="1955045599"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2210,7 +1953,70 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Euros for order</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="4.1206779233637338E-2"/>
+              <c:y val="0.19227994791547018"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2226,7 +2032,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2245,6 +2051,45 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2268,7 +2113,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2308,7 +2153,479 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1200"/>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15160182019912113"/>
+          <c:y val="2.9464965165113481E-2"/>
+          <c:w val="0.82852078703793774"/>
+          <c:h val="0.75023240125170543"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$N$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GRASP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$12:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>GRASP baseline</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LCR</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Shuffle</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Scheduler</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$N$12:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1891.7520661157025</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1938.8869565217392</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2058.6991150442477</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1712.6525423728813</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AA62-4633-9400-86C69A99F145}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$O$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GREEDY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$12:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>GRASP baseline</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LCR</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Shuffle</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Scheduler</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$O$12:$O$15</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6712.7009345794395</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6712.7009345794395</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6712.7009345794395</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6712.7009345794395</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AA62-4633-9400-86C69A99F145}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="-25"/>
+        <c:axId val="1229438735"/>
+        <c:axId val="1237530815"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1229438735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1237530815"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1237530815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Units of articles with negative stock</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.2526608928852951E-2"/>
+              <c:y val="0.23771266660254825"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1229438735"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
       </a:pPr>
       <a:endParaRPr lang="es-ES"/>
     </a:p>
@@ -2441,6 +2758,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3963,20 +4320,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>770165</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>166007</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4043,16 +4903,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>436109</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>79602</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>157163</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>585106</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4074,6 +4934,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>792304</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>103846</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F127CBB0-DA94-4BC0-955C-02F344208412}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4345,10 +5241,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="F26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W61" sqref="W61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4361,7 +5257,7 @@
     <col min="11" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -4384,19 +5280,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>-6745.13</v>
+      <c r="B2" s="2">
+        <v>13444</v>
       </c>
       <c r="C2">
         <v>238.55</v>
       </c>
       <c r="D2">
         <f>ABS(B2/1904)+C2</f>
-        <v>242.09261029411766</v>
+        <v>245.61092436974792</v>
       </c>
       <c r="E2">
         <v>-13770</v>
@@ -4411,19 +5307,19 @@
         <v>-1891.75</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>-7752.14</v>
+      <c r="B3" s="2">
+        <v>8182</v>
       </c>
       <c r="C3">
         <v>231.5</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D5" si="0">ABS(B3/1904)+C3</f>
-        <v>235.57150210084035</v>
+        <v>235.79726890756302</v>
       </c>
       <c r="E3">
         <v>-11684</v>
@@ -4438,19 +5334,19 @@
         <v>-1973.2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>-7014.55</v>
+      <c r="B4" s="2">
+        <v>7585</v>
       </c>
       <c r="C4">
         <v>215.19</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>218.87411239495799</v>
+        <v>219.17371848739495</v>
       </c>
       <c r="E4">
         <v>-29300</v>
@@ -4465,19 +5361,19 @@
         <v>-2022.9</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>-7012.46</v>
+      <c r="B5" s="2">
+        <v>7472</v>
       </c>
       <c r="C5">
         <v>234.55</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>238.23301470588237</v>
+        <v>238.47436974789917</v>
       </c>
       <c r="E5">
         <v>-12106</v>
@@ -4492,7 +5388,7 @@
         <v>-1712.65</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -4503,43 +5399,50 @@
         <v>8</v>
       </c>
       <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
         <v>14</v>
       </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
       <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
         <v>14</v>
       </c>
-      <c r="H11" t="s">
-        <v>15</v>
-      </c>
       <c r="I11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" t="s">
         <v>14</v>
       </c>
-      <c r="J11" t="s">
-        <v>15</v>
-      </c>
       <c r="K11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" t="s">
         <v>14</v>
       </c>
-      <c r="L11" t="s">
-        <v>15</v>
+      <c r="N11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="2">
-        <v>674.13</v>
+      <c r="B12" s="3">
+        <f>B2/1906</f>
+        <v>7.0535152151101785</v>
       </c>
       <c r="C12" s="3">
         <v>238.55</v>
       </c>
       <c r="D12" s="3">
         <f>ABS(B12)+C12</f>
-        <v>912.68000000000006</v>
+        <v>245.60351521511018</v>
       </c>
       <c r="E12">
         <f>ABS(E2)</f>
@@ -4566,27 +5469,36 @@
       <c r="L12" s="3">
         <v>377.23686974789899</v>
       </c>
+      <c r="N12" s="5">
+        <f>G12/I12</f>
+        <v>1891.7520661157025</v>
+      </c>
+      <c r="O12" s="5">
+        <f>H12/J12</f>
+        <v>6712.7009345794395</v>
+      </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2">
-        <v>775.14</v>
+      <c r="B13" s="3">
+        <f t="shared" ref="B13:B15" si="2">B3/1906</f>
+        <v>4.2927597061909761</v>
       </c>
       <c r="C13" s="3">
         <v>234.55</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" ref="D13" si="2">ABS(B13)+C13</f>
-        <v>1009.69</v>
+        <f t="shared" ref="D13:D15" si="3">ABS(B13)+C13</f>
+        <v>238.84275970619098</v>
       </c>
       <c r="E13">
         <f>ABS(E4)</f>
         <v>29300</v>
       </c>
       <c r="G13">
-        <f t="shared" ref="G13:G15" si="3">ABS(G3)</f>
+        <f t="shared" ref="G13:G15" si="4">ABS(G3)</f>
         <v>222972</v>
       </c>
       <c r="H13" s="1">
@@ -4600,32 +5512,41 @@
         <v>107</v>
       </c>
       <c r="K13" s="3">
-        <f t="shared" ref="K13:K15" si="4">G13/1904</f>
+        <f t="shared" ref="K13:K15" si="5">G13/1904</f>
         <v>117.10714285714286</v>
       </c>
       <c r="L13" s="3">
         <v>377.23686974789899</v>
       </c>
+      <c r="N13" s="5">
+        <f t="shared" ref="N13:O15" si="6">G13/I13</f>
+        <v>1938.8869565217392</v>
+      </c>
+      <c r="O13" s="5">
+        <f t="shared" si="6"/>
+        <v>6712.7009345794395</v>
+      </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2">
-        <v>701.55</v>
+        <v>15</v>
+      </c>
+      <c r="B14" s="3">
+        <f t="shared" si="2"/>
+        <v>3.9795383001049318</v>
       </c>
       <c r="C14" s="3">
         <v>231.5</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" ref="D14" si="5">ABS(B14)+C14</f>
-        <v>933.05</v>
+        <f t="shared" si="3"/>
+        <v>235.47953830010493</v>
       </c>
       <c r="E14">
         <v>12106</v>
       </c>
       <c r="G14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>232633</v>
       </c>
       <c r="H14" s="1">
@@ -4639,32 +5560,41 @@
         <v>107</v>
       </c>
       <c r="K14" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>122.18119747899159</v>
       </c>
       <c r="L14" s="3">
         <v>377.23686974789899</v>
       </c>
+      <c r="N14" s="5">
+        <f t="shared" si="6"/>
+        <v>2058.6991150442477</v>
+      </c>
+      <c r="O14" s="5">
+        <f t="shared" si="6"/>
+        <v>6712.7009345794395</v>
+      </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2">
-        <v>701.46</v>
+        <v>12</v>
+      </c>
+      <c r="B15" s="3">
+        <f t="shared" si="2"/>
+        <v>3.9202518363064009</v>
       </c>
       <c r="C15" s="3">
         <v>215.19</v>
       </c>
       <c r="D15" s="3">
-        <f>B15+C15</f>
-        <v>916.65000000000009</v>
+        <f t="shared" si="3"/>
+        <v>219.11025183630639</v>
       </c>
       <c r="E15">
         <v>11684</v>
       </c>
       <c r="G15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>202093</v>
       </c>
       <c r="H15" s="1">
@@ -4678,14 +5608,23 @@
         <v>107</v>
       </c>
       <c r="K15" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>106.14128151260505</v>
       </c>
       <c r="L15" s="3">
         <v>377.23686974789899</v>
       </c>
+      <c r="N15" s="5">
+        <f t="shared" si="6"/>
+        <v>1712.6525423728813</v>
+      </c>
+      <c r="O15" s="5">
+        <f t="shared" si="6"/>
+        <v>6712.7009345794395</v>
+      </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G16" s="4"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.25">
@@ -4693,6 +5632,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>